--- a/medicine/Pharmacie/1871_en_santé_et_médecine/1871_en_santé_et_médecine.xlsx
+++ b/medicine/Pharmacie/1871_en_santé_et_médecine/1871_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1871_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1871_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1871 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1871_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1871_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Allemagne
-Felix Hoppe-Seyler donne une première explication biochimique des porphyries[1].
-Friedrich Trendelenburg décrit la première trachéotomie réussie sous anesthésie générale[2],[3],[4],[5].
+Felix Hoppe-Seyler donne une première explication biochimique des porphyries.
+Friedrich Trendelenburg décrit la première trachéotomie réussie sous anesthésie générale.
 Royaume-Uni
-21 novembre : le prince de Galles contracte la fièvre typhoïde ; après celle de la reine Victoria durant l’été et l’automne, cette affection provoque un retournement de l’opinion en faveur de la monarchie au Royaume-Uni. Le prince est guéri le 27 février 1872[6].</t>
+21 novembre : le prince de Galles contracte la fièvre typhoïde ; après celle de la reine Victoria durant l’été et l’automne, cette affection provoque un retournement de l’opinion en faveur de la monarchie au Royaume-Uni. Le prince est guéri le 27 février 1872.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1871_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1871_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Friedrich Miescher (1844-1895) publie ses travaux : il isole une substance non protéique et non lipidique qu'il nomme « nucléine », ce qui sera par la suite décrit comme l'acide désoxyribonucléique [7].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Friedrich Miescher (1844-1895) publie ses travaux : il isole une substance non protéique et non lipidique qu'il nomme « nucléine », ce qui sera par la suite décrit comme l'acide désoxyribonucléique .</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1871_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1871_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>7 janvier : Thomas Horder (en) (mort en 1955), médecin britannique, médecin in ordinary des rois Édouard VII, George V, George VI et de la reine Élisabeth II.
 11 janvier : Robert Kienböck (mort en 1953), radiologue autrichien ayant découvert la maladie de Kienböck.
@@ -598,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1871_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1871_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,7 +634,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1 février : Eugène Joseph Daviers (né en 1815), médecin français
 14 mars : Felix von Niemeyer (en) (né en 1820), interniste allemand.
